--- a/docs/Models Optimization.xlsx
+++ b/docs/Models Optimization.xlsx
@@ -8,24 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\FYP\content-recommendation\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C024A8E-582A-4F0A-9867-2B37C75EADD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D38F1BC-1F2B-46E4-9D91-38F4D6442270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Item CF" sheetId="3" r:id="rId1"/>
+    <sheet name="DSSM" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Objective</t>
   </si>
@@ -100,6 +112,51 @@
   </si>
   <si>
     <t>same as 1001, but more epoch</t>
+  </si>
+  <si>
+    <t>using the basic model, using the balace data (50% +ve)</t>
+  </si>
+  <si>
+    <t>F-beta Score</t>
+  </si>
+  <si>
+    <t>MRR</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>+ve sample</t>
+  </si>
+  <si>
+    <t>-ve sample</t>
+  </si>
+  <si>
+    <t>Model Result</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>ItemCF 1001.ipynb</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Parameters</t>
   </si>
 </sst>
 </file>
@@ -115,7 +172,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +182,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -214,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -222,38 +285,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -261,53 +383,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,49 +662,225 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5E6B7B-BA93-4178-A717-FFFF2FA5F02E}">
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.6328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.6328125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="35.6328125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" style="6" customWidth="1"/>
-    <col min="5" max="7" width="10.6328125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="10.6328125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="10.6328125" style="6" customWidth="1"/>
-    <col min="10" max="14" width="10.6328125" style="7" customWidth="1"/>
-    <col min="15" max="15" width="10.6328125" style="8" customWidth="1"/>
-    <col min="16" max="16" width="15.6328125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="35.6328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" style="16" customWidth="1"/>
+    <col min="5" max="9" width="10.6328125" style="17" customWidth="1"/>
+    <col min="10" max="10" width="10.6328125" style="16" customWidth="1"/>
+    <col min="11" max="12" width="10.6328125" style="17" customWidth="1"/>
+    <col min="13" max="13" width="10.6328125" style="18" customWidth="1"/>
+    <col min="14" max="16" width="10.6328125" style="17" customWidth="1"/>
+    <col min="17" max="17" width="10.6328125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="10.6328125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="15.6328125" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="33"/>
+      <c r="S1" s="35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="36"/>
+    </row>
+    <row r="3" spans="1:19" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="21">
+        <v>1001</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="24">
+        <v>0.55741600000000002</v>
+      </c>
+      <c r="E3" s="25">
+        <v>0.63323799999999997</v>
+      </c>
+      <c r="F3" s="25">
+        <v>0.26530599999999999</v>
+      </c>
+      <c r="G3" s="25">
+        <v>0.373942</v>
+      </c>
+      <c r="H3" s="25">
+        <v>0.32306299999999999</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="26">
+        <v>221</v>
+      </c>
+      <c r="K3" s="21">
+        <v>711</v>
+      </c>
+      <c r="L3" s="21">
+        <v>128</v>
+      </c>
+      <c r="M3" s="27">
+        <v>612</v>
+      </c>
+      <c r="N3" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="26">
+        <v>833</v>
+      </c>
+      <c r="R3" s="21">
+        <v>839</v>
+      </c>
+      <c r="S3" s="28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="J1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="5.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="35.6328125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" style="3" customWidth="1"/>
+    <col min="5" max="7" width="10.6328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.6328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.6328125" style="3" customWidth="1"/>
+    <col min="10" max="14" width="10.6328125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.6328125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="15.6328125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="3" t="s">
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="14" t="s">
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="35" t="s">
         <v>20</v>
       </c>
     </row>
@@ -637,147 +888,147 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="15"/>
+      <c r="P2" s="36"/>
     </row>
-    <row r="3" spans="1:16" s="32" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="25">
+    <row r="3" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
         <v>1001</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="3">
         <v>0.64</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="2">
         <v>0.53</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="2">
         <v>0.7</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="2">
         <v>0.85</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="4">
         <v>0.77</v>
       </c>
-      <c r="I3" s="28">
+      <c r="I3" s="3">
         <v>1</v>
       </c>
-      <c r="J3" s="29">
+      <c r="J3" s="2">
         <v>0.2</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="2">
         <v>32</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3" s="2">
         <v>1</v>
       </c>
-      <c r="M3" s="29">
+      <c r="M3" s="2">
         <v>17</v>
       </c>
-      <c r="N3" s="29">
+      <c r="N3" s="2">
         <v>5</v>
       </c>
-      <c r="O3" s="30">
+      <c r="O3" s="4">
         <v>5</v>
       </c>
-      <c r="P3" s="31" t="s">
+      <c r="P3" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17">
+    <row r="4" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
         <v>1002</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="12">
         <v>0.59</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="9">
         <v>0.52</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="9">
         <v>0.69</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="9">
         <v>0.74</v>
       </c>
-      <c r="H4" s="22">
+      <c r="H4" s="13">
         <v>0.72</v>
       </c>
-      <c r="I4" s="20">
+      <c r="I4" s="12">
         <v>3</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="9">
         <v>0.2</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="9">
         <v>32</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="9">
         <v>1</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="9">
         <v>17</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="9">
         <v>5</v>
       </c>
-      <c r="O4" s="22">
+      <c r="O4" s="13">
         <v>5</v>
       </c>
-      <c r="P4" s="23" t="s">
+      <c r="P4" s="14" t="s">
         <v>22</v>
       </c>
     </row>
